--- a/src/test/java/perf/results/Read Results.xlsx
+++ b/src/test/java/perf/results/Read Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Regular IO Reader</t>
   </si>
@@ -203,12 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,6 +253,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,827 +565,1005 @@
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="M1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="V3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="W3" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10" t="s">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
+      <c r="T4" s="9"/>
+      <c r="U4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11" t="s">
+      <c r="V4" s="9"/>
+      <c r="W4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19">
+    <row r="5" spans="1:23">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>255</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>140</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
+        <v>153</v>
+      </c>
+      <c r="F6" s="13">
         <v>75</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="12">
         <v>95</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="14">
         <v>240</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="8">
+        <v>174</v>
+      </c>
+      <c r="K6" s="9">
+        <v>54</v>
+      </c>
+      <c r="L6" s="9">
         <v>38</v>
       </c>
-      <c r="J6" s="10">
+      <c r="M6" s="9">
         <v>26</v>
       </c>
-      <c r="K6" s="10">
+      <c r="N6" s="9">
         <v>32</v>
       </c>
-      <c r="L6" s="10">
+      <c r="O6" s="9">
+        <v>36</v>
+      </c>
+      <c r="P6" s="9">
         <v>25</v>
       </c>
-      <c r="M6" s="10">
+      <c r="Q6" s="9">
         <v>24</v>
       </c>
-      <c r="N6" s="10">
+      <c r="R6" s="9">
         <v>27</v>
       </c>
-      <c r="O6" s="10">
+      <c r="S6" s="9">
         <v>22</v>
       </c>
-      <c r="P6" s="10">
+      <c r="T6" s="9">
         <v>34</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="U6" s="9">
         <v>30</v>
       </c>
-      <c r="R6" s="10">
+      <c r="V6" s="9">
         <v>29</v>
       </c>
-      <c r="S6" s="11">
+      <c r="W6" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>33</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>26</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
+        <v>55</v>
+      </c>
+      <c r="F7" s="12">
         <v>141</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="12">
         <v>16</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="14">
         <v>26</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="8">
+        <v>67</v>
+      </c>
+      <c r="K7" s="9">
+        <v>71</v>
+      </c>
+      <c r="L7" s="9">
         <v>43</v>
       </c>
-      <c r="J7" s="10">
+      <c r="M7" s="9">
         <v>41</v>
       </c>
-      <c r="K7" s="10">
+      <c r="N7" s="9">
         <v>47</v>
       </c>
-      <c r="L7" s="10">
+      <c r="O7" s="9">
+        <v>57</v>
+      </c>
+      <c r="P7" s="9">
         <v>48</v>
       </c>
-      <c r="M7" s="10">
+      <c r="Q7" s="9">
         <v>18</v>
       </c>
-      <c r="N7" s="10">
+      <c r="R7" s="9">
         <v>42</v>
       </c>
-      <c r="O7" s="10">
+      <c r="S7" s="9">
         <v>60</v>
       </c>
-      <c r="P7" s="10">
+      <c r="T7" s="9">
         <v>52</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="U7" s="9">
         <v>49</v>
       </c>
-      <c r="R7" s="10">
+      <c r="V7" s="9">
         <v>22</v>
       </c>
-      <c r="S7" s="11">
+      <c r="W7" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>82</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>55</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
+        <v>53</v>
+      </c>
+      <c r="F8" s="12">
         <v>40</v>
       </c>
-      <c r="F8" s="13">
+      <c r="G8" s="12">
         <v>45</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="14">
         <v>55</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="8">
+        <v>36</v>
+      </c>
+      <c r="K8" s="9">
+        <v>25</v>
+      </c>
+      <c r="L8" s="9">
         <v>1</v>
       </c>
-      <c r="J8" s="10">
+      <c r="M8" s="9">
         <v>3</v>
       </c>
-      <c r="K8" s="10">
+      <c r="N8" s="9">
         <v>2</v>
       </c>
-      <c r="L8" s="10">
+      <c r="O8" s="9">
         <v>1</v>
       </c>
-      <c r="M8" s="10">
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
         <v>0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="R8" s="9">
         <v>0</v>
       </c>
-      <c r="O8" s="10">
+      <c r="S8" s="9">
         <v>1</v>
       </c>
-      <c r="P8" s="10">
+      <c r="T8" s="9">
         <v>2</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="U8" s="9">
         <v>1</v>
       </c>
-      <c r="R8" s="10">
+      <c r="V8" s="9">
         <v>1</v>
       </c>
-      <c r="S8" s="11">
+      <c r="W8" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>70</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>90</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
+        <v>73</v>
+      </c>
+      <c r="F9" s="12">
         <v>65</v>
       </c>
-      <c r="F9" s="13">
+      <c r="G9" s="12">
         <v>205</v>
       </c>
-      <c r="G9" s="15">
+      <c r="H9" s="14">
         <v>170</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="8">
+        <v>76</v>
+      </c>
+      <c r="K9" s="9">
+        <v>55</v>
+      </c>
+      <c r="L9" s="9">
         <v>3</v>
       </c>
-      <c r="J9" s="10">
+      <c r="M9" s="9">
         <v>15</v>
       </c>
-      <c r="K9" s="10">
+      <c r="N9" s="9">
         <v>46</v>
       </c>
-      <c r="L9" s="10">
+      <c r="O9" s="9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="9">
         <v>1</v>
       </c>
-      <c r="M9" s="10">
+      <c r="Q9" s="9">
         <v>1</v>
       </c>
-      <c r="N9" s="10">
+      <c r="R9" s="9">
         <v>1</v>
       </c>
-      <c r="O9" s="10">
+      <c r="S9" s="9">
         <v>2</v>
       </c>
-      <c r="P9" s="10">
+      <c r="T9" s="9">
         <v>1</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="U9" s="9">
         <v>1</v>
       </c>
-      <c r="R9" s="10">
+      <c r="V9" s="9">
         <v>2</v>
       </c>
-      <c r="S9" s="11">
+      <c r="W9" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>170</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>175</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
+        <v>147</v>
+      </c>
+      <c r="F10" s="12">
         <v>140</v>
       </c>
-      <c r="F10" s="13">
+      <c r="G10" s="12">
         <v>250</v>
       </c>
-      <c r="G10" s="15">
+      <c r="H10" s="14">
         <v>265</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="8">
+        <v>114</v>
+      </c>
+      <c r="K10" s="9">
+        <v>92</v>
+      </c>
+      <c r="L10" s="9">
         <v>5</v>
       </c>
-      <c r="J10" s="10">
+      <c r="M10" s="9">
         <v>9</v>
       </c>
-      <c r="K10" s="10">
+      <c r="N10" s="9">
         <v>12</v>
       </c>
-      <c r="L10" s="10">
+      <c r="O10" s="9">
+        <v>3</v>
+      </c>
+      <c r="P10" s="9">
         <v>2</v>
       </c>
-      <c r="M10" s="10">
+      <c r="Q10" s="9">
         <v>2</v>
       </c>
-      <c r="N10" s="10">
+      <c r="R10" s="9">
         <v>2</v>
       </c>
-      <c r="O10" s="10">
+      <c r="S10" s="9">
         <v>4</v>
       </c>
-      <c r="P10" s="10">
+      <c r="T10" s="9">
         <v>3</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="U10" s="9">
         <v>2</v>
       </c>
-      <c r="R10" s="10">
+      <c r="V10" s="9">
         <v>6</v>
       </c>
-      <c r="S10" s="11">
+      <c r="W10" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>1320</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>310</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
+        <v>272</v>
+      </c>
+      <c r="F11" s="12">
         <v>275</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G11" s="12">
         <v>290</v>
       </c>
-      <c r="G11" s="15">
+      <c r="H11" s="14">
         <v>285</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="8">
+        <v>210</v>
+      </c>
+      <c r="K11" s="9">
+        <v>143</v>
+      </c>
+      <c r="L11" s="9">
         <v>9</v>
       </c>
-      <c r="J11" s="10">
+      <c r="M11" s="9">
         <v>26</v>
       </c>
-      <c r="K11" s="10">
+      <c r="N11" s="9">
         <v>32</v>
       </c>
-      <c r="L11" s="10">
+      <c r="O11" s="9">
+        <v>9</v>
+      </c>
+      <c r="P11" s="9">
         <v>5</v>
       </c>
-      <c r="M11" s="10">
+      <c r="Q11" s="9">
         <v>4</v>
       </c>
-      <c r="N11" s="10">
+      <c r="R11" s="9">
         <v>8</v>
       </c>
-      <c r="O11" s="10">
+      <c r="S11" s="9">
         <v>8</v>
       </c>
-      <c r="P11" s="10">
+      <c r="T11" s="9">
         <v>7</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="U11" s="9">
         <v>5</v>
       </c>
-      <c r="R11" s="10">
+      <c r="V11" s="9">
         <v>5</v>
       </c>
-      <c r="S11" s="11">
+      <c r="W11" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>3001</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>520</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
+        <v>473</v>
+      </c>
+      <c r="F12" s="12">
         <v>495</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="12">
         <v>500</v>
       </c>
-      <c r="G12" s="15">
+      <c r="H12" s="14">
         <v>505</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="8">
+        <v>301</v>
+      </c>
+      <c r="K12" s="9">
+        <v>235</v>
+      </c>
+      <c r="L12" s="9">
         <v>17</v>
       </c>
-      <c r="J12" s="10">
+      <c r="M12" s="9">
         <v>53</v>
       </c>
-      <c r="K12" s="10">
+      <c r="N12" s="9">
         <v>125</v>
       </c>
-      <c r="L12" s="10">
+      <c r="O12" s="9">
+        <v>19</v>
+      </c>
+      <c r="P12" s="9">
         <v>14</v>
       </c>
-      <c r="M12" s="10">
+      <c r="Q12" s="9">
         <v>11</v>
       </c>
-      <c r="N12" s="10">
+      <c r="R12" s="9">
         <v>14</v>
       </c>
-      <c r="O12" s="10">
+      <c r="S12" s="9">
         <v>15</v>
       </c>
-      <c r="P12" s="10">
+      <c r="T12" s="9">
         <v>15</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="U12" s="9">
         <v>11</v>
       </c>
-      <c r="R12" s="10">
+      <c r="V12" s="9">
         <v>11</v>
       </c>
-      <c r="S12" s="11">
+      <c r="W12" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>3325</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>976</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
+        <v>901</v>
+      </c>
+      <c r="F13" s="12">
         <v>1026</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="12">
         <v>876</v>
       </c>
-      <c r="G13" s="15">
+      <c r="H13" s="14">
         <v>1266</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="8">
+        <v>424</v>
+      </c>
+      <c r="K13" s="9">
+        <v>328</v>
+      </c>
+      <c r="L13" s="9">
         <v>39</v>
       </c>
-      <c r="J13" s="10">
+      <c r="M13" s="9">
         <v>81</v>
       </c>
-      <c r="K13" s="10">
+      <c r="N13" s="9">
         <v>70</v>
       </c>
-      <c r="L13" s="10">
+      <c r="O13" s="9">
+        <v>26</v>
+      </c>
+      <c r="P13" s="9">
         <v>18</v>
       </c>
-      <c r="M13" s="10">
+      <c r="Q13" s="9">
         <v>22</v>
       </c>
-      <c r="N13" s="10">
+      <c r="R13" s="9">
         <v>20</v>
       </c>
-      <c r="O13" s="10">
+      <c r="S13" s="9">
         <v>29</v>
       </c>
-      <c r="P13" s="10">
+      <c r="T13" s="9">
         <v>29</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="U13" s="9">
         <v>17</v>
       </c>
-      <c r="R13" s="10">
+      <c r="V13" s="9">
         <v>23</v>
       </c>
-      <c r="S13" s="11">
+      <c r="W13" s="10">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>6165</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>5170</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
+        <v>3547</v>
+      </c>
+      <c r="F14" s="12">
         <v>5356</v>
       </c>
-      <c r="F14" s="13">
+      <c r="G14" s="12">
         <v>5700</v>
       </c>
-      <c r="G14" s="15">
+      <c r="H14" s="14">
         <v>5802</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="8">
+        <v>911</v>
+      </c>
+      <c r="K14" s="9">
+        <v>461</v>
+      </c>
+      <c r="L14" s="9">
         <v>68</v>
       </c>
-      <c r="J14" s="10">
+      <c r="M14" s="9">
         <v>160</v>
       </c>
-      <c r="K14" s="10">
+      <c r="N14" s="9">
         <v>134</v>
       </c>
-      <c r="L14" s="10">
+      <c r="O14" s="9">
+        <v>51</v>
+      </c>
+      <c r="P14" s="9">
         <v>41</v>
       </c>
-      <c r="M14" s="10">
+      <c r="Q14" s="9">
         <v>41</v>
       </c>
-      <c r="N14" s="10">
+      <c r="R14" s="9">
         <v>38</v>
       </c>
-      <c r="O14" s="10">
+      <c r="S14" s="9">
         <v>52</v>
       </c>
-      <c r="P14" s="10">
+      <c r="T14" s="9">
         <v>68</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="U14" s="9">
         <v>42</v>
       </c>
-      <c r="R14" s="10">
+      <c r="V14" s="9">
         <v>50</v>
       </c>
-      <c r="S14" s="11">
+      <c r="W14" s="10">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>8996</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>8921</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
+        <v>6514</v>
+      </c>
+      <c r="F15" s="12">
         <v>9381</v>
       </c>
-      <c r="F15" s="13">
+      <c r="G15" s="12">
         <v>9996</v>
       </c>
-      <c r="G15" s="15">
+      <c r="H15" s="14">
         <v>10715</v>
       </c>
-      <c r="I15" s="9">
+      <c r="J15" s="8">
+        <v>1708</v>
+      </c>
+      <c r="K15" s="9">
+        <v>936</v>
+      </c>
+      <c r="L15" s="9">
         <v>156</v>
       </c>
-      <c r="J15" s="10">
+      <c r="M15" s="9">
         <v>231</v>
       </c>
-      <c r="K15" s="10">
+      <c r="N15" s="9">
         <v>287</v>
       </c>
-      <c r="L15" s="10">
+      <c r="O15" s="9">
+        <v>119</v>
+      </c>
+      <c r="P15" s="9">
         <v>85</v>
       </c>
-      <c r="M15" s="10">
+      <c r="Q15" s="9">
         <v>80</v>
       </c>
-      <c r="N15" s="10">
+      <c r="R15" s="9">
         <v>73</v>
       </c>
-      <c r="O15" s="10">
+      <c r="S15" s="9">
         <v>91</v>
       </c>
-      <c r="P15" s="10">
+      <c r="T15" s="9">
         <v>93</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="U15" s="9">
         <v>81</v>
       </c>
-      <c r="R15" s="10">
+      <c r="V15" s="9">
         <v>107</v>
       </c>
-      <c r="S15" s="11">
+      <c r="W15" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>22156</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>16261</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
+        <v>13229</v>
+      </c>
+      <c r="F16" s="12">
         <v>16076</v>
       </c>
-      <c r="F16" s="13">
+      <c r="G16" s="12">
         <v>16861</v>
       </c>
-      <c r="G16" s="15">
+      <c r="H16" s="14">
         <v>18663</v>
       </c>
-      <c r="I16" s="9">
+      <c r="J16" s="8">
+        <v>4184</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1793</v>
+      </c>
+      <c r="L16" s="9">
         <v>242</v>
       </c>
-      <c r="J16" s="10">
+      <c r="M16" s="9">
         <v>484</v>
       </c>
-      <c r="K16" s="10">
+      <c r="N16" s="9">
         <v>556</v>
       </c>
-      <c r="L16" s="10">
+      <c r="O16" s="9">
+        <v>231</v>
+      </c>
+      <c r="P16" s="9">
         <v>141</v>
       </c>
-      <c r="M16" s="10">
+      <c r="Q16" s="9">
         <v>147</v>
       </c>
-      <c r="N16" s="10">
+      <c r="R16" s="9">
         <v>160</v>
       </c>
-      <c r="O16" s="10">
+      <c r="S16" s="9">
         <v>147</v>
       </c>
-      <c r="P16" s="10">
+      <c r="T16" s="9">
         <v>196</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="U16" s="9">
         <v>136</v>
       </c>
-      <c r="R16" s="10">
+      <c r="V16" s="9">
         <v>199</v>
       </c>
-      <c r="S16" s="11">
+      <c r="W16" s="10">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>43041</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>27626</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
+        <v>26076</v>
+      </c>
+      <c r="F17" s="12">
         <v>29111</v>
       </c>
-      <c r="F17" s="13">
+      <c r="G17" s="12">
         <v>29093</v>
       </c>
-      <c r="G17" s="15">
+      <c r="H17" s="14">
         <v>30340</v>
       </c>
-      <c r="I17" s="9">
+      <c r="J17" s="8">
+        <v>5821</v>
+      </c>
+      <c r="K17" s="25">
+        <v>4073</v>
+      </c>
+      <c r="L17" s="9">
         <v>601</v>
       </c>
-      <c r="J17" s="10">
+      <c r="M17" s="9">
         <v>846</v>
       </c>
-      <c r="K17" s="10">
+      <c r="N17" s="9">
         <v>1019</v>
       </c>
-      <c r="L17" s="10">
+      <c r="O17" s="9">
+        <v>325</v>
+      </c>
+      <c r="P17" s="9">
         <v>278</v>
       </c>
-      <c r="M17" s="10">
+      <c r="Q17" s="9">
         <v>360</v>
       </c>
-      <c r="N17" s="10">
+      <c r="R17" s="9">
         <v>276</v>
       </c>
-      <c r="O17" s="10">
+      <c r="S17" s="9">
         <v>260</v>
       </c>
-      <c r="P17" s="10">
+      <c r="T17" s="9">
         <v>364</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="U17" s="9">
         <v>268</v>
       </c>
-      <c r="R17" s="10">
+      <c r="V17" s="9">
         <v>326</v>
       </c>
-      <c r="S17" s="11">
+      <c r="W17" s="10">
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>78526</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>55256</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
+        <v>71431</v>
+      </c>
+      <c r="F18" s="16">
         <v>55566</v>
       </c>
-      <c r="F18" s="17">
+      <c r="G18" s="16">
         <v>67978</v>
       </c>
-      <c r="G18" s="18">
+      <c r="H18" s="17">
         <v>64647</v>
       </c>
-      <c r="I18" s="19">
+      <c r="J18" s="18">
+        <v>13412</v>
+      </c>
+      <c r="K18" s="19">
+        <v>5010</v>
+      </c>
+      <c r="L18" s="19">
         <v>1072</v>
       </c>
-      <c r="J18" s="20">
+      <c r="M18" s="19">
         <v>1867</v>
       </c>
-      <c r="K18" s="20">
+      <c r="N18" s="19">
         <v>2032</v>
       </c>
-      <c r="L18" s="20">
+      <c r="O18" s="19">
+        <v>792</v>
+      </c>
+      <c r="P18" s="19">
         <v>718</v>
       </c>
-      <c r="M18" s="20">
+      <c r="Q18" s="19">
         <v>735</v>
       </c>
-      <c r="N18" s="20">
+      <c r="R18" s="19">
         <v>725</v>
       </c>
-      <c r="O18" s="20">
+      <c r="S18" s="19">
         <v>569</v>
       </c>
-      <c r="P18" s="20">
+      <c r="T18" s="19">
         <v>726</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="U18" s="19">
         <v>541</v>
       </c>
-      <c r="R18" s="20">
+      <c r="V18" s="19">
         <v>648</v>
       </c>
-      <c r="S18" s="21">
+      <c r="W18" s="20">
         <v>710</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
